--- a/data/trans_dic/P25A$preocupacion-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A$preocupacion-Edad-trans_dic.xlsx
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02675080288491515</v>
+        <v>0.02652918310531576</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
@@ -706,27 +706,27 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4988869679770161</v>
+        <v>0.4902427300621628</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.408800120986705</v>
+        <v>0.359403027556734</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.2657057281929984</v>
+        <v>0.25383344358583</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3606147696932294</v>
+        <v>0.3570086706089738</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2422160569035607</v>
+        <v>0.2646860641883185</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2411684731377175</v>
+        <v>0.2553994020838248</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2300741103576696</v>
+        <v>0.2264988906351848</v>
       </c>
     </row>
     <row r="7">
@@ -776,31 +776,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02271517932189063</v>
+        <v>0.02203755370670386</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02500624317424006</v>
+        <v>0.02591330125649855</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03190967298163002</v>
+        <v>0.02216418913470874</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08740308484540292</v>
+        <v>0.08520968888562609</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0245774119383334</v>
+        <v>0.02558247933517038</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04423094918792488</v>
+        <v>0.03158340765192776</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07941925936244465</v>
+        <v>0.08006426134562038</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03736719045272457</v>
+        <v>0.03557387546626224</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04560978150632474</v>
+        <v>0.04760755169351134</v>
       </c>
     </row>
     <row r="9">
@@ -811,31 +811,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2496972124029287</v>
+        <v>0.226250165225626</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1420767175425233</v>
+        <v>0.1539170062243077</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2089760953012865</v>
+        <v>0.2205203546134878</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2648533629638712</v>
+        <v>0.244970539892449</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1418379052872577</v>
+        <v>0.1511632959595156</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1923375700489604</v>
+        <v>0.1879058447586514</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2126354150226577</v>
+        <v>0.2097887909560402</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1193684762724222</v>
+        <v>0.1161286328865711</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1642813996578882</v>
+        <v>0.1627260088202505</v>
       </c>
     </row>
     <row r="10">
@@ -885,31 +885,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05559225648537577</v>
+        <v>0.05865308093677143</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06477886545222063</v>
+        <v>0.06635179496490606</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03869196108935394</v>
+        <v>0.0390193326093246</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04023514732805623</v>
+        <v>0.04178802130331275</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02041430006408002</v>
+        <v>0.02101342256095692</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03826532334908246</v>
+        <v>0.03726612191589636</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06423630154674688</v>
+        <v>0.06801254558141778</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04104224188697277</v>
+        <v>0.04194357397140779</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.21183157477902</v>
+        <v>0.2069019761416467</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1931134462893459</v>
+        <v>0.2019858311924949</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1834020115939927</v>
+        <v>0.1702346473608334</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.111586166210063</v>
+        <v>0.1210369874560936</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1608875963059868</v>
+        <v>0.1570024369805445</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1178961450824522</v>
+        <v>0.1223800461501104</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1333365742238687</v>
+        <v>0.1293410589740727</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1471617385325849</v>
+        <v>0.1533517768615927</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1202387799199468</v>
+        <v>0.1213769959442278</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04598120076380301</v>
+        <v>0.04359173081092877</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05635587402936069</v>
+        <v>0.05610630850731127</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08536182240774717</v>
+        <v>0.08642141722464677</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02102213763951981</v>
+        <v>0.02112335739558757</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05741731126919104</v>
+        <v>0.06014602126101178</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08173584003541491</v>
+        <v>0.082676593260191</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05238580242479861</v>
+        <v>0.04838214395623913</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0688018796123501</v>
+        <v>0.0686555053492023</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09737046353318964</v>
+        <v>0.09997196212617766</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.152664510309158</v>
+        <v>0.1561483067414662</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1513355382185914</v>
+        <v>0.1518427207449003</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2246224359191688</v>
+        <v>0.2269646107339651</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1810930154531971</v>
+        <v>0.2007165018176294</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.208920409015103</v>
+        <v>0.2103332696859533</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2288111731457932</v>
+        <v>0.2229152171222331</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1364369242384754</v>
+        <v>0.1365344532045756</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1504913474185888</v>
+        <v>0.1503998589310043</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2002237906586894</v>
+        <v>0.2029854147058347</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0225959968523801</v>
+        <v>0.02188678685525867</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0453542077547897</v>
+        <v>0.04560447896100323</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06855016212285824</v>
+        <v>0.0680470764890309</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01767779179915577</v>
+        <v>0.017669869049277</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02476599307556605</v>
+        <v>0.0264475651072882</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04643128120895715</v>
+        <v>0.04212696238481277</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05012960084745807</v>
+        <v>0.05254625284811791</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09913115295319572</v>
+        <v>0.09912854950711138</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1577108062422112</v>
+        <v>0.1552450887289327</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1953215417253146</v>
+        <v>0.1899960549622981</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3499099579608137</v>
+        <v>0.2951593140147834</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1384578221508394</v>
+        <v>0.1711542093227672</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1767949722636311</v>
+        <v>0.1576389710813144</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09757581230936785</v>
+        <v>0.1051078599435869</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1306339179197696</v>
+        <v>0.129907103479519</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1533650665749349</v>
+        <v>0.1433714932110067</v>
       </c>
     </row>
     <row r="19">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02267688055961194</v>
+        <v>0.02299827244290335</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01806842386626554</v>
+        <v>0.01304956126962536</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09960936349866771</v>
+        <v>0.1033311649750232</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02705497741751072</v>
+        <v>0.02681120827329941</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01231981324413784</v>
+        <v>0.01232029966367116</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.09253187770571673</v>
+        <v>0.09067139987646206</v>
       </c>
     </row>
     <row r="21">
@@ -1245,29 +1245,29 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1090446183086212</v>
+        <v>0.1043478670836886</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07490180228529331</v>
+        <v>0.0727651435411497</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2463140911573273</v>
+        <v>0.2489728149910481</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3473997600556664</v>
+        <v>0.3359976930369244</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.1727321026597122</v>
+        <v>0.2101809810719283</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1112198776456364</v>
+        <v>0.1064674097154143</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.07870434673735448</v>
+        <v>0.07469385644096663</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2190553895070282</v>
+        <v>0.2095860765899974</v>
       </c>
     </row>
     <row r="22">
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03332124111872609</v>
+        <v>0.03484675010770348</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02296956510080116</v>
+        <v>0.02616543924162931</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04854405811850876</v>
+        <v>0.04664542764959938</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>0</v>
@@ -1331,13 +1331,13 @@
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="inlineStr"/>
       <c r="I23" s="5" t="n">
-        <v>0.04121221781000347</v>
+        <v>0.03784405125246362</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02548327736185856</v>
+        <v>0.02623589358633795</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04509160249870754</v>
+        <v>0.04497527968204523</v>
       </c>
     </row>
     <row r="24">
@@ -1348,27 +1348,27 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.131377333234107</v>
+        <v>0.1299802050465725</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1120182291449955</v>
+        <v>0.1231164530568897</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1542202060599259</v>
+        <v>0.1453597197233938</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5613260989468167</v>
+        <v>0.5608732214961952</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="n">
-        <v>0.1385712241161345</v>
+        <v>0.1307604198535775</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1115663551304655</v>
+        <v>0.1149904837817617</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1483409478269369</v>
+        <v>0.1429207562964546</v>
       </c>
     </row>
     <row r="25">
@@ -1418,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05715365578875142</v>
+        <v>0.05794984660646149</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05839703481592941</v>
+        <v>0.05980414876009399</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.09424151453348434</v>
+        <v>0.0942619723759392</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05250905725773924</v>
+        <v>0.04993539217509981</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05663635235023463</v>
+        <v>0.0542529977100069</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.05576816226675835</v>
+        <v>0.0529754594265789</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06079764237681053</v>
+        <v>0.06098240817162693</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.06428894628481133</v>
+        <v>0.06337019256574011</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0877422074895495</v>
+        <v>0.08633044215995492</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.09786552581809721</v>
+        <v>0.1010134983900537</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.09904152582770405</v>
+        <v>0.09913319250345164</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1496453034013629</v>
+        <v>0.1483043487516094</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1257362427040537</v>
+        <v>0.1234401494342848</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1176956717851078</v>
+        <v>0.1137672476144442</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1145260989832519</v>
+        <v>0.1139416391904308</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.09693515835949419</v>
+        <v>0.09692007762438039</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.09844012968822373</v>
+        <v>0.09726468729139473</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1286444819565619</v>
+        <v>0.1275941704749428</v>
       </c>
     </row>
     <row r="28">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
@@ -1740,27 +1740,27 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5631</v>
+        <v>5534</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6862</v>
+        <v>6033</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>5109</v>
+        <v>4881</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5950</v>
+        <v>5890</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6475</v>
+        <v>7075</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>8685</v>
+        <v>9198</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>5970</v>
+        <v>5877</v>
       </c>
     </row>
     <row r="8">
@@ -1845,31 +1845,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>896</v>
+        <v>869</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1819</v>
+        <v>1885</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1551</v>
+        <v>1077</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6124</v>
+        <v>5970</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2037</v>
+        <v>2120</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2564</v>
+        <v>1831</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8698</v>
+        <v>8769</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5814</v>
+        <v>5535</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>4860</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="11">
@@ -1880,31 +1880,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9852</v>
+        <v>8926</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10334</v>
+        <v>11195</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10155</v>
+        <v>10716</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18557</v>
+        <v>17164</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11753</v>
+        <v>12526</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>11149</v>
+        <v>10893</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>23288</v>
+        <v>22976</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>18573</v>
+        <v>18069</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>17506</v>
+        <v>17340</v>
       </c>
     </row>
     <row r="12">
@@ -1989,31 +1989,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4723</v>
+        <v>4983</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7279</v>
+        <v>7455</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2876</v>
+        <v>2900</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4993</v>
+        <v>5186</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1795</v>
+        <v>1848</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5786</v>
+        <v>5635</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>15189</v>
+        <v>16082</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6659</v>
+        <v>6806</v>
       </c>
     </row>
     <row r="15">
@@ -2024,31 +2024,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17996</v>
+        <v>17577</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21698</v>
+        <v>22695</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13630</v>
+        <v>12652</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7394</v>
+        <v>8020</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>19965</v>
+        <v>19483</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10367</v>
+        <v>10762</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20163</v>
+        <v>19559</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>34797</v>
+        <v>36261</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>19509</v>
+        <v>19694</v>
       </c>
     </row>
     <row r="16">
@@ -2133,31 +2133,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5773</v>
+        <v>5473</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9577</v>
+        <v>9534</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9235</v>
+        <v>9350</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5259</v>
+        <v>5509</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7211</v>
+        <v>7294</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9655</v>
+        <v>8917</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>17993</v>
+        <v>17955</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>19125</v>
+        <v>19636</v>
       </c>
     </row>
     <row r="19">
@@ -2168,31 +2168,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19167</v>
+        <v>19604</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25717</v>
+        <v>25803</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>24301</v>
+        <v>24555</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10639</v>
+        <v>11791</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>19134</v>
+        <v>19264</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>20188</v>
+        <v>19668</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>25145</v>
+        <v>25163</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>39356</v>
+        <v>39333</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>39327</v>
+        <v>39870</v>
       </c>
     </row>
     <row r="20">
@@ -2277,13 +2277,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2895</v>
+        <v>2804</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6361</v>
+        <v>6396</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>9117</v>
+        <v>9050</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3605</v>
+        <v>3850</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>8915</v>
+        <v>8088</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>9520</v>
+        <v>9979</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         <v>12701</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>22118</v>
+        <v>21772</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>25977</v>
+        <v>25269</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>6102</v>
+        <v>5147</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>7167</v>
+        <v>8859</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>10063</v>
+        <v>8973</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>14203</v>
+        <v>15300</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>25082</v>
+        <v>24942</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>29126</v>
+        <v>27228</v>
       </c>
     </row>
     <row r="24">
@@ -2421,13 +2421,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2764</v>
+        <v>2803</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2937</v>
+        <v>2121</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>12274</v>
+        <v>12733</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
@@ -2437,13 +2437,13 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>3664</v>
+        <v>3631</v>
       </c>
       <c r="J26" s="6" t="n">
         <v>2133</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>13786</v>
+        <v>13509</v>
       </c>
     </row>
     <row r="27">
@@ -2454,29 +2454,29 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13293</v>
+        <v>12720</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12175</v>
+        <v>11827</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>30352</v>
+        <v>30679</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4705</v>
+        <v>4550</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>4450</v>
+        <v>5415</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>15064</v>
+        <v>14420</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>13629</v>
+        <v>12934</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>32636</v>
+        <v>31225</v>
       </c>
     </row>
     <row r="28">
@@ -2561,13 +2561,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3775</v>
+        <v>3948</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3250</v>
+        <v>3702</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5278</v>
+        <v>5072</v>
       </c>
       <c r="F30" s="6" t="n">
         <v>0</v>
@@ -2575,13 +2575,13 @@
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="inlineStr"/>
       <c r="I30" s="6" t="n">
-        <v>5050</v>
+        <v>4637</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>3769</v>
+        <v>3880</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>5015</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="31">
@@ -2592,27 +2592,27 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14885</v>
+        <v>14727</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>15848</v>
+        <v>17418</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>16768</v>
+        <v>15804</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>5183</v>
+        <v>5179</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="n">
-        <v>16980</v>
+        <v>16022</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>16499</v>
+        <v>17006</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>16499</v>
+        <v>15896</v>
       </c>
     </row>
     <row r="32">
@@ -2697,31 +2697,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>35696</v>
+        <v>36194</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>47656</v>
+        <v>48805</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>57063</v>
+        <v>57075</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>13166</v>
+        <v>12521</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>21894</v>
+        <v>20972</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>18727</v>
+        <v>17790</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>53216</v>
+        <v>53378</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>77316</v>
+        <v>76211</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>82592</v>
+        <v>81263</v>
       </c>
     </row>
     <row r="35">
@@ -2732,31 +2732,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>61124</v>
+        <v>63090</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>80825</v>
+        <v>80900</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>90609</v>
+        <v>89798</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>31526</v>
+        <v>30951</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>45497</v>
+        <v>43978</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>38459</v>
+        <v>38263</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>84848</v>
+        <v>84834</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>118388</v>
+        <v>116974</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>121094</v>
+        <v>120105</v>
       </c>
     </row>
     <row r="36">
